--- a/biology/Botanique/Dinizia_jueirana-facao/Dinizia_jueirana-facao.xlsx
+++ b/biology/Botanique/Dinizia_jueirana-facao/Dinizia_jueirana-facao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dinizia jueirana-facao est une espèce de plantes dicotylédones de la famille des Fabaceae,  sous-famille des Mimosoideae, identifiée en 2017 dans l'État d'Espírito Santo au Brésil[2]. Ce sont des arbres géants, émergents du couvert forestier.
-C'est la deuxième espèce décrite du genre Dinizia, qui était considéré depuis sa création en 1922 comme un genre monospécifique. Le genre Dinizia a été récemment (2008-2017) reclassé dans la sous-famille des Caesalpinioideae[2].
-Cette espèce, dont on ne connaît que 25 spécimens, est considérée en danger critique d'extinction selon les critères de conservation de l'Union internationale pour la conservation de la nature (UICN)[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinizia jueirana-facao est une espèce de plantes dicotylédones de la famille des Fabaceae,  sous-famille des Mimosoideae, identifiée en 2017 dans l'État d'Espírito Santo au Brésil. Ce sont des arbres géants, émergents du couvert forestier.
+C'est la deuxième espèce décrite du genre Dinizia, qui était considéré depuis sa création en 1922 comme un genre monospécifique. Le genre Dinizia a été récemment (2008-2017) reclassé dans la sous-famille des Caesalpinioideae.
+Cette espèce, dont on ne connaît que 25 spécimens, est considérée en danger critique d'extinction selon les critères de conservation de l'Union internationale pour la conservation de la nature (UICN).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand arbre pouvant atteindre 40 mètres de haut. Ses gousses ressemblent à des fourreaux de machette (en portugais : facão)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand arbre pouvant atteindre 40 mètres de haut. Ses gousses ressemblent à des fourreaux de machette (en portugais : facão).
 </t>
         </is>
       </c>
